--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/10/seed1/result_data_RandomForest.xlsx
@@ -505,10 +505,10 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.068400000000001</v>
+        <v>-6.952199999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>13.3666</v>
+        <v>13.3527</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.26609999999999</v>
+        <v>13.3199</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.409299999999993</v>
+        <v>-7.512299999999999</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.29119999999999</v>
+        <v>14.34859999999999</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.043899999999997</v>
+        <v>-8.041099999999998</v>
       </c>
       <c r="E16" t="n">
-        <v>13.31710000000001</v>
+        <v>13.32820000000001</v>
       </c>
     </row>
     <row r="17">
